--- a/Frontend/Frontend info.xlsx
+++ b/Frontend/Frontend info.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="FrontEnd" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Footballui" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="300">
   <si>
     <t>model / table</t>
   </si>
@@ -808,6 +808,9 @@
     <t>t7</t>
   </si>
   <si>
+    <t>APP_NAME=footballui</t>
+  </si>
+  <si>
     <t>DB_CONNECTION=mysql</t>
   </si>
   <si>
@@ -844,7 +847,7 @@
     <t>blade</t>
   </si>
   <si>
-    <t>/football/resources/views/frontend/</t>
+    <t>/footballui/resources/views/frontend/</t>
   </si>
   <si>
     <t>t10</t>
@@ -853,7 +856,7 @@
     <t>css</t>
   </si>
   <si>
-    <t>/football/public/frontend/files/ "page"/</t>
+    <t>/footballui/public/frontend/files/ "page"/</t>
   </si>
   <si>
     <t>js</t>
@@ -862,7 +865,7 @@
     <t>image</t>
   </si>
   <si>
-    <t>/football/public/frontend/images/ "page"/</t>
+    <t>/footballui/public/frontend/images/ "page"/</t>
   </si>
   <si>
     <t>t11</t>
@@ -871,19 +874,19 @@
     <t>routing</t>
   </si>
   <si>
-    <t>/football/routes/web.php</t>
+    <t>/footballui/routes/web.php</t>
   </si>
   <si>
     <t>controller</t>
   </si>
   <si>
-    <t>/football/app/Http/Controllers/FrontendController.php</t>
+    <t>/footballui/app/Http/Controllers/FrontendController.php</t>
   </si>
   <si>
     <t>model</t>
   </si>
   <si>
-    <t>/football/app/Models/</t>
+    <t>/footballui/app/Models/</t>
   </si>
   <si>
     <t>t12</t>
@@ -998,12 +1001,12 @@
     <font>
       <sz val="9.0"/>
       <color theme="1"/>
-      <name val="Menlo"/>
+      <name val="Arial"/>
     </font>
     <font>
       <sz val="9.0"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Menlo"/>
     </font>
   </fonts>
   <fills count="17">
@@ -1033,8 +1036,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF980000"/>
-        <bgColor rgb="FF980000"/>
+        <fgColor rgb="FFF1C232"/>
+        <bgColor rgb="FFF1C232"/>
       </patternFill>
     </fill>
     <fill>
@@ -1327,14 +1330,14 @@
     </xf>
     <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="8" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="8" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="10" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
@@ -2919,30 +2922,29 @@
       </c>
       <c r="B26" s="44"/>
       <c r="C26" s="45"/>
-      <c r="N26" s="42" t="s">
-        <v>251</v>
-      </c>
-      <c r="O26" s="42" t="s">
-        <v>252</v>
-      </c>
-      <c r="P26" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="W26" s="16" t="s">
-        <v>128</v>
-      </c>
+      <c r="N26" s="42"/>
+      <c r="O26" s="42"/>
+      <c r="P26" s="42"/>
+      <c r="W26" s="16"/>
       <c r="X26" s="16"/>
-      <c r="Y26" s="16" t="s">
-        <v>25</v>
-      </c>
+      <c r="Y26" s="16"/>
     </row>
     <row r="27">
       <c r="A27" s="46" t="s">
+        <v>251</v>
+      </c>
+      <c r="C27" s="47"/>
+      <c r="N27" s="42" t="s">
+        <v>252</v>
+      </c>
+      <c r="O27" s="42" t="s">
         <v>253</v>
       </c>
-      <c r="C27" s="47"/>
+      <c r="P27" s="42" t="s">
+        <v>48</v>
+      </c>
       <c r="W27" s="16" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="X27" s="16"/>
       <c r="Y27" s="16" t="s">
@@ -2955,7 +2957,7 @@
       </c>
       <c r="C28" s="47"/>
       <c r="W28" s="16" t="s">
-        <v>255</v>
+        <v>130</v>
       </c>
       <c r="X28" s="16"/>
       <c r="Y28" s="16" t="s">
@@ -2963,12 +2965,12 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="48" t="s">
-        <v>256</v>
+      <c r="A29" s="46" t="s">
+        <v>255</v>
       </c>
       <c r="C29" s="47"/>
       <c r="W29" s="16" t="s">
-        <v>143</v>
+        <v>256</v>
       </c>
       <c r="X29" s="16"/>
       <c r="Y29" s="16" t="s">
@@ -2976,13 +2978,12 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="46" t="s">
+      <c r="A30" s="48" t="s">
         <v>257</v>
       </c>
-      <c r="B30" s="2"/>
       <c r="C30" s="47"/>
       <c r="W30" s="16" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="X30" s="16"/>
       <c r="Y30" s="16" t="s">
@@ -2990,13 +2991,13 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="49" t="s">
+      <c r="A31" s="46" t="s">
         <v>258</v>
       </c>
-      <c r="B31" s="50"/>
-      <c r="C31" s="51"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="47"/>
       <c r="W31" s="16" t="s">
-        <v>259</v>
+        <v>145</v>
       </c>
       <c r="X31" s="16"/>
       <c r="Y31" s="16" t="s">
@@ -3004,8 +3005,13 @@
       </c>
     </row>
     <row r="32">
+      <c r="A32" s="49" t="s">
+        <v>259</v>
+      </c>
+      <c r="B32" s="50"/>
+      <c r="C32" s="51"/>
       <c r="W32" s="16" t="s">
-        <v>157</v>
+        <v>260</v>
       </c>
       <c r="X32" s="16"/>
       <c r="Y32" s="16" t="s">
@@ -3013,11 +3019,8 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="2" t="s">
-        <v>260</v>
-      </c>
       <c r="W33" s="16" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="X33" s="16"/>
       <c r="Y33" s="16" t="s">
@@ -3025,17 +3028,11 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="52" t="s">
+      <c r="A34" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="B34" s="53" t="s">
-        <v>262</v>
-      </c>
-      <c r="C34" s="44"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="45"/>
       <c r="W34" s="16" t="s">
-        <v>263</v>
+        <v>159</v>
       </c>
       <c r="X34" s="16"/>
       <c r="Y34" s="16" t="s">
@@ -3043,15 +3040,17 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="54" t="s">
+      <c r="A35" s="52" t="s">
+        <v>262</v>
+      </c>
+      <c r="B35" s="53" t="s">
+        <v>263</v>
+      </c>
+      <c r="C35" s="44"/>
+      <c r="D35" s="44"/>
+      <c r="E35" s="45"/>
+      <c r="W35" s="16" t="s">
         <v>264</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="E35" s="47"/>
-      <c r="W35" s="16" t="s">
-        <v>170</v>
       </c>
       <c r="X35" s="16"/>
       <c r="Y35" s="16" t="s">
@@ -3060,14 +3059,14 @@
     </row>
     <row r="36">
       <c r="A36" s="54" t="s">
+        <v>265</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>266</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>265</v>
       </c>
       <c r="E36" s="47"/>
       <c r="W36" s="16" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="X36" s="16"/>
       <c r="Y36" s="16" t="s">
@@ -3079,11 +3078,11 @@
         <v>267</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E37" s="47"/>
       <c r="W37" s="16" t="s">
-        <v>269</v>
+        <v>172</v>
       </c>
       <c r="X37" s="16"/>
       <c r="Y37" s="16" t="s">
@@ -3092,14 +3091,14 @@
     </row>
     <row r="38">
       <c r="A38" s="54" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E38" s="47"/>
       <c r="W38" s="16" t="s">
-        <v>183</v>
+        <v>270</v>
       </c>
       <c r="X38" s="16"/>
       <c r="Y38" s="16" t="s">
@@ -3107,15 +3106,15 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="55" t="s">
+      <c r="A39" s="54" t="s">
+        <v>271</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>272</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>273</v>
       </c>
       <c r="E39" s="47"/>
       <c r="W39" s="16" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="X39" s="16"/>
       <c r="Y39" s="16" t="s">
@@ -3123,17 +3122,15 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="56" t="s">
+      <c r="A40" s="55" t="s">
+        <v>273</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="B40" s="57" t="s">
-        <v>275</v>
-      </c>
-      <c r="C40" s="50"/>
-      <c r="D40" s="50"/>
-      <c r="E40" s="51"/>
+      <c r="E40" s="47"/>
       <c r="W40" s="16" t="s">
-        <v>276</v>
+        <v>185</v>
       </c>
       <c r="X40" s="16"/>
       <c r="Y40" s="16" t="s">
@@ -3141,8 +3138,17 @@
       </c>
     </row>
     <row r="41">
+      <c r="A41" s="56" t="s">
+        <v>275</v>
+      </c>
+      <c r="B41" s="57" t="s">
+        <v>276</v>
+      </c>
+      <c r="C41" s="50"/>
+      <c r="D41" s="50"/>
+      <c r="E41" s="51"/>
       <c r="W41" s="16" t="s">
-        <v>195</v>
+        <v>277</v>
       </c>
       <c r="X41" s="16"/>
       <c r="Y41" s="16" t="s">
@@ -3151,7 +3157,7 @@
     </row>
     <row r="42">
       <c r="W42" s="16" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="X42" s="16"/>
       <c r="Y42" s="16" t="s">
@@ -3160,7 +3166,7 @@
     </row>
     <row r="43">
       <c r="W43" s="16" t="s">
-        <v>277</v>
+        <v>197</v>
       </c>
       <c r="X43" s="16"/>
       <c r="Y43" s="16" t="s">
@@ -3353,6 +3359,15 @@
       </c>
       <c r="X64" s="16"/>
       <c r="Y64" s="16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="W65" s="16" t="s">
+        <v>299</v>
+      </c>
+      <c r="X65" s="16"/>
+      <c r="Y65" s="16" t="s">
         <v>25</v>
       </c>
     </row>

--- a/Frontend/Frontend info.xlsx
+++ b/Frontend/Frontend info.xlsx
@@ -3,7 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Footballui" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Laravel" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Axure" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -11,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="325">
   <si>
     <t>model / table</t>
   </si>
@@ -760,6 +761,12 @@
     <t>recommendation.blade.php</t>
   </si>
   <si>
+    <t>jc_id</t>
+  </si>
+  <si>
+    <t>球賽編號</t>
+  </si>
+  <si>
     <t>d1</t>
   </si>
   <si>
@@ -796,6 +803,9 @@
     <t>和2-2</t>
   </si>
   <si>
+    <t>Project name : footballui</t>
+  </si>
+  <si>
     <t>DataBase env :</t>
   </si>
   <si>
@@ -956,6 +966,72 @@
   </si>
   <si>
     <t>t20</t>
+  </si>
+  <si>
+    <t>NAVIGATION BAR / Top Menu</t>
+  </si>
+  <si>
+    <t>Hyperlink</t>
+  </si>
+  <si>
+    <t>Button</t>
+  </si>
+  <si>
+    <t>/footballui/public/page_first</t>
+  </si>
+  <si>
+    <t>足球AI模組分析</t>
+  </si>
+  <si>
+    <t>/footballui/public/page_a1</t>
+  </si>
+  <si>
+    <t>/footballui/public/page_a2</t>
+  </si>
+  <si>
+    <t>/footballui/public/page_a3</t>
+  </si>
+  <si>
+    <t>/footballui/public/page_a4</t>
+  </si>
+  <si>
+    <t>/footballui/public/page_a5</t>
+  </si>
+  <si>
+    <t>/footballui/public/page_a6</t>
+  </si>
+  <si>
+    <t>/footballui/public/page_a7</t>
+  </si>
+  <si>
+    <t>/footballui/public/page_a8</t>
+  </si>
+  <si>
+    <t>/footballui/public/page_login</t>
+  </si>
+  <si>
+    <t>/footballui/public/page_member</t>
+  </si>
+  <si>
+    <t>/footballui/public/page_contact</t>
+  </si>
+  <si>
+    <t>/footballui/public/page_whyus</t>
+  </si>
+  <si>
+    <t>/footballui/public/page_intro</t>
+  </si>
+  <si>
+    <t>/footballui/public/page_apply</t>
+  </si>
+  <si>
+    <t>/footballui/public/page_register</t>
+  </si>
+  <si>
+    <t>/footballui/public/page_recommendation</t>
+  </si>
+  <si>
+    <t>/footballui/public/page_risk</t>
   </si>
 </sst>
 </file>
@@ -1009,7 +1085,7 @@
       <name val="Menlo"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1104,6 +1180,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFF7CBAC"/>
         <bgColor rgb="FFF7CBAC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA4C2F4"/>
+        <bgColor rgb="FFA4C2F4"/>
       </patternFill>
     </fill>
   </fills>
@@ -1239,7 +1321,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="70">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1325,6 +1407,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="1" fillId="16" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="5" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -1360,6 +1445,35 @@
     <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="5" fillId="17" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="7" fillId="17" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="5" fillId="17" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="8" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="8" fillId="3" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="8" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="10" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="10" fillId="3" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -1369,6 +1483,10 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -1569,6 +1687,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
+    <tabColor rgb="FF00FF00"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <sheetViews>
@@ -2826,17 +2945,26 @@
       <c r="F22" s="2" t="s">
         <v>233</v>
       </c>
+      <c r="H22" s="43" t="s">
+        <v>234</v>
+      </c>
+      <c r="I22" s="43" t="s">
+        <v>235</v>
+      </c>
+      <c r="J22" s="11" t="s">
+        <v>25</v>
+      </c>
       <c r="N22" s="42" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="O22" s="42" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="P22" s="42" t="s">
         <v>48</v>
       </c>
       <c r="W22" s="16" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="X22" s="16"/>
       <c r="Y22" s="16" t="s">
@@ -2845,25 +2973,25 @@
     </row>
     <row r="23">
       <c r="A23" s="3" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="N23" s="42" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="O23" s="42" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="P23" s="42" t="s">
         <v>48</v>
@@ -2879,10 +3007,10 @@
     <row r="24">
       <c r="C24" s="2"/>
       <c r="N24" s="42" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="O24" s="42" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="P24" s="42" t="s">
         <v>48</v>
@@ -2897,31 +3025,18 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="N25" s="42" t="s">
-        <v>247</v>
-      </c>
-      <c r="O25" s="42" t="s">
         <v>248</v>
       </c>
-      <c r="P25" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="W25" s="16" t="s">
-        <v>249</v>
-      </c>
+      <c r="C25" s="2"/>
+      <c r="N25" s="42"/>
+      <c r="O25" s="42"/>
+      <c r="P25" s="42"/>
+      <c r="W25" s="16"/>
       <c r="X25" s="16"/>
-      <c r="Y25" s="16" t="s">
-        <v>25</v>
-      </c>
+      <c r="Y25" s="16"/>
     </row>
     <row r="26">
-      <c r="A26" s="43" t="s">
-        <v>250</v>
-      </c>
-      <c r="B26" s="44"/>
-      <c r="C26" s="45"/>
+      <c r="C26" s="2"/>
       <c r="N26" s="42"/>
       <c r="O26" s="42"/>
       <c r="P26" s="42"/>
@@ -2930,21 +3045,20 @@
       <c r="Y26" s="16"/>
     </row>
     <row r="27">
-      <c r="A27" s="46" t="s">
+      <c r="A27" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="N27" s="42" t="s">
+        <v>250</v>
+      </c>
+      <c r="O27" s="42" t="s">
         <v>251</v>
       </c>
-      <c r="C27" s="47"/>
-      <c r="N27" s="42" t="s">
+      <c r="P27" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="W27" s="16" t="s">
         <v>252</v>
-      </c>
-      <c r="O27" s="42" t="s">
-        <v>253</v>
-      </c>
-      <c r="P27" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="W27" s="16" t="s">
-        <v>128</v>
       </c>
       <c r="X27" s="16"/>
       <c r="Y27" s="16" t="s">
@@ -2952,25 +3066,34 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="46" t="s">
+      <c r="A28" s="44" t="s">
+        <v>253</v>
+      </c>
+      <c r="B28" s="45"/>
+      <c r="C28" s="46"/>
+      <c r="N28" s="42"/>
+      <c r="O28" s="42"/>
+      <c r="P28" s="42"/>
+      <c r="W28" s="16"/>
+      <c r="X28" s="16"/>
+      <c r="Y28" s="16"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="47" t="s">
         <v>254</v>
       </c>
-      <c r="C28" s="47"/>
-      <c r="W28" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="X28" s="16"/>
-      <c r="Y28" s="16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="46" t="s">
+      <c r="C29" s="48"/>
+      <c r="N29" s="42" t="s">
         <v>255</v>
       </c>
-      <c r="C29" s="47"/>
+      <c r="O29" s="42" t="s">
+        <v>256</v>
+      </c>
+      <c r="P29" s="42" t="s">
+        <v>48</v>
+      </c>
       <c r="W29" s="16" t="s">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="X29" s="16"/>
       <c r="Y29" s="16" t="s">
@@ -2978,12 +3101,12 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="48" t="s">
+      <c r="A30" s="47" t="s">
         <v>257</v>
       </c>
-      <c r="C30" s="47"/>
+      <c r="C30" s="48"/>
       <c r="W30" s="16" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="X30" s="16"/>
       <c r="Y30" s="16" t="s">
@@ -2991,13 +3114,12 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="46" t="s">
+      <c r="A31" s="47" t="s">
         <v>258</v>
       </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="47"/>
+      <c r="C31" s="48"/>
       <c r="W31" s="16" t="s">
-        <v>145</v>
+        <v>259</v>
       </c>
       <c r="X31" s="16"/>
       <c r="Y31" s="16" t="s">
@@ -3006,12 +3128,11 @@
     </row>
     <row r="32">
       <c r="A32" s="49" t="s">
-        <v>259</v>
-      </c>
-      <c r="B32" s="50"/>
-      <c r="C32" s="51"/>
+        <v>260</v>
+      </c>
+      <c r="C32" s="48"/>
       <c r="W32" s="16" t="s">
-        <v>260</v>
+        <v>143</v>
       </c>
       <c r="X32" s="16"/>
       <c r="Y32" s="16" t="s">
@@ -3019,8 +3140,13 @@
       </c>
     </row>
     <row r="33">
+      <c r="A33" s="47" t="s">
+        <v>261</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="48"/>
       <c r="W33" s="16" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="X33" s="16"/>
       <c r="Y33" s="16" t="s">
@@ -3028,11 +3154,13 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="2" t="s">
-        <v>261</v>
-      </c>
+      <c r="A34" s="50" t="s">
+        <v>262</v>
+      </c>
+      <c r="B34" s="51"/>
+      <c r="C34" s="52"/>
       <c r="W34" s="16" t="s">
-        <v>159</v>
+        <v>263</v>
       </c>
       <c r="X34" s="16"/>
       <c r="Y34" s="16" t="s">
@@ -3040,17 +3168,8 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="52" t="s">
-        <v>262</v>
-      </c>
-      <c r="B35" s="53" t="s">
-        <v>263</v>
-      </c>
-      <c r="C35" s="44"/>
-      <c r="D35" s="44"/>
-      <c r="E35" s="45"/>
       <c r="W35" s="16" t="s">
-        <v>264</v>
+        <v>157</v>
       </c>
       <c r="X35" s="16"/>
       <c r="Y35" s="16" t="s">
@@ -3058,15 +3177,11 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="54" t="s">
-        <v>265</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="E36" s="47"/>
+      <c r="A36" s="2" t="s">
+        <v>264</v>
+      </c>
       <c r="W36" s="16" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="X36" s="16"/>
       <c r="Y36" s="16" t="s">
@@ -3074,15 +3189,17 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="54" t="s">
+      <c r="A37" s="53" t="s">
+        <v>265</v>
+      </c>
+      <c r="B37" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="C37" s="45"/>
+      <c r="D37" s="45"/>
+      <c r="E37" s="46"/>
+      <c r="W37" s="16" t="s">
         <v>267</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="E37" s="47"/>
-      <c r="W37" s="16" t="s">
-        <v>172</v>
       </c>
       <c r="X37" s="16"/>
       <c r="Y37" s="16" t="s">
@@ -3090,15 +3207,15 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="54" t="s">
+      <c r="A38" s="55" t="s">
         <v>268</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="E38" s="47"/>
+      <c r="E38" s="48"/>
       <c r="W38" s="16" t="s">
-        <v>270</v>
+        <v>170</v>
       </c>
       <c r="X38" s="16"/>
       <c r="Y38" s="16" t="s">
@@ -3106,15 +3223,15 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="54" t="s">
-        <v>271</v>
+      <c r="A39" s="55" t="s">
+        <v>270</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="E39" s="47"/>
+        <v>269</v>
+      </c>
+      <c r="E39" s="48"/>
       <c r="W39" s="16" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="X39" s="16"/>
       <c r="Y39" s="16" t="s">
@@ -3123,14 +3240,14 @@
     </row>
     <row r="40">
       <c r="A40" s="55" t="s">
+        <v>271</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="E40" s="48"/>
+      <c r="W40" s="16" t="s">
         <v>273</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="E40" s="47"/>
-      <c r="W40" s="16" t="s">
-        <v>185</v>
       </c>
       <c r="X40" s="16"/>
       <c r="Y40" s="16" t="s">
@@ -3138,17 +3255,15 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="56" t="s">
+      <c r="A41" s="55" t="s">
+        <v>274</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="B41" s="57" t="s">
-        <v>276</v>
-      </c>
-      <c r="C41" s="50"/>
-      <c r="D41" s="50"/>
-      <c r="E41" s="51"/>
+      <c r="E41" s="48"/>
       <c r="W41" s="16" t="s">
-        <v>277</v>
+        <v>183</v>
       </c>
       <c r="X41" s="16"/>
       <c r="Y41" s="16" t="s">
@@ -3156,8 +3271,15 @@
       </c>
     </row>
     <row r="42">
+      <c r="A42" s="56" t="s">
+        <v>276</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="E42" s="48"/>
       <c r="W42" s="16" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="X42" s="16"/>
       <c r="Y42" s="16" t="s">
@@ -3165,8 +3287,17 @@
       </c>
     </row>
     <row r="43">
+      <c r="A43" s="57" t="s">
+        <v>278</v>
+      </c>
+      <c r="B43" s="58" t="s">
+        <v>279</v>
+      </c>
+      <c r="C43" s="51"/>
+      <c r="D43" s="51"/>
+      <c r="E43" s="52"/>
       <c r="W43" s="16" t="s">
-        <v>197</v>
+        <v>280</v>
       </c>
       <c r="X43" s="16"/>
       <c r="Y43" s="16" t="s">
@@ -3175,7 +3306,7 @@
     </row>
     <row r="44">
       <c r="W44" s="16" t="s">
-        <v>278</v>
+        <v>195</v>
       </c>
       <c r="X44" s="16"/>
       <c r="Y44" s="16" t="s">
@@ -3184,7 +3315,7 @@
     </row>
     <row r="45">
       <c r="W45" s="16" t="s">
-        <v>279</v>
+        <v>197</v>
       </c>
       <c r="X45" s="16"/>
       <c r="Y45" s="16" t="s">
@@ -3193,7 +3324,7 @@
     </row>
     <row r="46">
       <c r="W46" s="16" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="X46" s="16"/>
       <c r="Y46" s="16" t="s">
@@ -3202,7 +3333,7 @@
     </row>
     <row r="47">
       <c r="W47" s="16" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="X47" s="16"/>
       <c r="Y47" s="16" t="s">
@@ -3211,7 +3342,7 @@
     </row>
     <row r="48">
       <c r="W48" s="16" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="X48" s="16"/>
       <c r="Y48" s="16" t="s">
@@ -3220,7 +3351,7 @@
     </row>
     <row r="49">
       <c r="W49" s="16" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="X49" s="16"/>
       <c r="Y49" s="16" t="s">
@@ -3229,7 +3360,7 @@
     </row>
     <row r="50">
       <c r="W50" s="16" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="X50" s="16"/>
       <c r="Y50" s="16" t="s">
@@ -3238,7 +3369,7 @@
     </row>
     <row r="51">
       <c r="W51" s="16" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="X51" s="16"/>
       <c r="Y51" s="16" t="s">
@@ -3247,7 +3378,7 @@
     </row>
     <row r="52">
       <c r="W52" s="16" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="X52" s="16"/>
       <c r="Y52" s="16" t="s">
@@ -3256,7 +3387,7 @@
     </row>
     <row r="53">
       <c r="W53" s="16" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="X53" s="16"/>
       <c r="Y53" s="16" t="s">
@@ -3265,7 +3396,7 @@
     </row>
     <row r="54">
       <c r="W54" s="16" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="X54" s="16"/>
       <c r="Y54" s="16" t="s">
@@ -3274,7 +3405,7 @@
     </row>
     <row r="55">
       <c r="W55" s="16" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="X55" s="16"/>
       <c r="Y55" s="16" t="s">
@@ -3283,7 +3414,7 @@
     </row>
     <row r="56">
       <c r="W56" s="16" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="X56" s="16"/>
       <c r="Y56" s="16" t="s">
@@ -3292,7 +3423,7 @@
     </row>
     <row r="57">
       <c r="W57" s="16" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="X57" s="16"/>
       <c r="Y57" s="16" t="s">
@@ -3301,7 +3432,7 @@
     </row>
     <row r="58">
       <c r="W58" s="16" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="X58" s="16"/>
       <c r="Y58" s="16" t="s">
@@ -3310,7 +3441,7 @@
     </row>
     <row r="59">
       <c r="W59" s="16" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="X59" s="16"/>
       <c r="Y59" s="16" t="s">
@@ -3319,7 +3450,7 @@
     </row>
     <row r="60">
       <c r="W60" s="16" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="X60" s="16"/>
       <c r="Y60" s="16" t="s">
@@ -3328,7 +3459,7 @@
     </row>
     <row r="61">
       <c r="W61" s="16" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="X61" s="16"/>
       <c r="Y61" s="16" t="s">
@@ -3337,7 +3468,7 @@
     </row>
     <row r="62">
       <c r="W62" s="16" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="X62" s="16"/>
       <c r="Y62" s="16" t="s">
@@ -3346,7 +3477,7 @@
     </row>
     <row r="63">
       <c r="W63" s="16" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="X63" s="16"/>
       <c r="Y63" s="16" t="s">
@@ -3355,7 +3486,7 @@
     </row>
     <row r="64">
       <c r="W64" s="16" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="X64" s="16"/>
       <c r="Y64" s="16" t="s">
@@ -3364,10 +3495,28 @@
     </row>
     <row r="65">
       <c r="W65" s="16" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="X65" s="16"/>
       <c r="Y65" s="16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="W66" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="X66" s="16"/>
+      <c r="Y66" s="16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="W67" s="16" t="s">
+        <v>302</v>
+      </c>
+      <c r="X67" s="16"/>
+      <c r="Y67" s="16" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3395,4 +3544,227 @@
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <tabColor rgb="FFFF00FF"/>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="15.75"/>
+    <col customWidth="1" min="2" max="2" width="31.0"/>
+    <col customWidth="1" min="3" max="3" width="6.75"/>
+    <col customWidth="1" min="5" max="5" width="22.25"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="59" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1" s="60" t="s">
+        <v>304</v>
+      </c>
+      <c r="C1" s="61"/>
+      <c r="D1" s="62" t="s">
+        <v>305</v>
+      </c>
+      <c r="E1" s="60" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="63" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="64" t="s">
+        <v>306</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="63" t="s">
+        <v>307</v>
+      </c>
+      <c r="E2" s="64" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="63" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="64" t="s">
+        <v>308</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="48"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="63" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="64" t="s">
+        <v>309</v>
+      </c>
+      <c r="D4" s="65"/>
+      <c r="E4" s="48"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="63" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="64" t="s">
+        <v>310</v>
+      </c>
+      <c r="D5" s="65"/>
+      <c r="E5" s="48"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="66" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="64" t="s">
+        <v>311</v>
+      </c>
+      <c r="D6" s="65"/>
+      <c r="E6" s="48"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="63" t="s">
+        <v>108</v>
+      </c>
+      <c r="B7" s="64" t="s">
+        <v>312</v>
+      </c>
+      <c r="D7" s="65"/>
+      <c r="E7" s="48"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="63" t="s">
+        <v>119</v>
+      </c>
+      <c r="B8" s="64" t="s">
+        <v>313</v>
+      </c>
+      <c r="D8" s="65"/>
+      <c r="E8" s="48"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="63" t="s">
+        <v>134</v>
+      </c>
+      <c r="B9" s="64" t="s">
+        <v>314</v>
+      </c>
+      <c r="D9" s="65"/>
+      <c r="E9" s="48"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="63" t="s">
+        <v>148</v>
+      </c>
+      <c r="B10" s="64" t="s">
+        <v>315</v>
+      </c>
+      <c r="D10" s="65"/>
+      <c r="E10" s="48"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="63" t="s">
+        <v>163</v>
+      </c>
+      <c r="B11" s="64" t="s">
+        <v>316</v>
+      </c>
+      <c r="D11" s="65"/>
+      <c r="E11" s="48"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="63" t="s">
+        <v>176</v>
+      </c>
+      <c r="B12" s="64" t="s">
+        <v>317</v>
+      </c>
+      <c r="D12" s="65"/>
+      <c r="E12" s="48"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="63" t="s">
+        <v>188</v>
+      </c>
+      <c r="B13" s="64" t="s">
+        <v>318</v>
+      </c>
+      <c r="D13" s="65"/>
+      <c r="E13" s="48"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="63" t="s">
+        <v>199</v>
+      </c>
+      <c r="B14" s="64" t="s">
+        <v>319</v>
+      </c>
+      <c r="D14" s="65"/>
+      <c r="E14" s="48"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="63" t="s">
+        <v>206</v>
+      </c>
+      <c r="B15" s="64" t="s">
+        <v>320</v>
+      </c>
+      <c r="D15" s="65"/>
+      <c r="E15" s="48"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="63" t="s">
+        <v>215</v>
+      </c>
+      <c r="B16" s="64" t="s">
+        <v>321</v>
+      </c>
+      <c r="D16" s="65"/>
+      <c r="E16" s="48"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="63" t="s">
+        <v>222</v>
+      </c>
+      <c r="B17" s="64" t="s">
+        <v>322</v>
+      </c>
+      <c r="D17" s="65"/>
+      <c r="E17" s="48"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="63" t="s">
+        <v>229</v>
+      </c>
+      <c r="B18" s="64" t="s">
+        <v>323</v>
+      </c>
+      <c r="D18" s="65"/>
+      <c r="E18" s="48"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="67" t="s">
+        <v>239</v>
+      </c>
+      <c r="B19" s="68" t="s">
+        <v>324</v>
+      </c>
+      <c r="D19" s="69"/>
+      <c r="E19" s="52"/>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>